--- a/data/trans_dic/P13_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,47</t>
+          <t>1,31; 5,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 8,53</t>
+          <t>3,34; 8,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,53</t>
+          <t>0,56; 3,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,36</t>
+          <t>1,61; 6,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 14,09</t>
+          <t>6,71; 13,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,43</t>
+          <t>0,46; 2,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,77</t>
+          <t>1,83; 4,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,33</t>
+          <t>5,79; 10,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,61</t>
+          <t>0,74; 2,54</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,87</t>
+          <t>2,84; 6,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,96</t>
+          <t>2,76; 7,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,31</t>
+          <t>1,21; 4,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,93</t>
+          <t>2,58; 6,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,95</t>
+          <t>4,58; 8,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 14,05</t>
+          <t>8,44; 14,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,64</t>
+          <t>2,23; 5,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,79</t>
+          <t>5,77; 9,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,19</t>
+          <t>4,21; 7,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,74</t>
+          <t>6,16; 9,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,25</t>
+          <t>2,08; 4,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,55</t>
+          <t>4,76; 7,71</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,37</t>
+          <t>0,3; 3,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,62</t>
+          <t>1,2; 5,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,18</t>
+          <t>0,5; 3,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 10,52</t>
+          <t>5,11; 10,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,13</t>
+          <t>0,92; 4,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,52</t>
+          <t>3,99; 9,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,65; 13,69</t>
+          <t>8,3; 13,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,04</t>
+          <t>0,82; 3,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,3</t>
+          <t>3,28; 6,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,02</t>
+          <t>0,42; 2,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,69; 11,41</t>
+          <t>7,74; 11,54</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,01</t>
+          <t>0,31; 3,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,36</t>
+          <t>2,38; 5,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,07</t>
+          <t>2,76; 6,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,2</t>
+          <t>4,13; 10,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,44</t>
+          <t>1,17; 4,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 15,94</t>
+          <t>10,56; 15,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,41</t>
+          <t>4,86; 10,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,58</t>
+          <t>4,87; 8,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,07</t>
+          <t>1,03; 3,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,16; 10,07</t>
+          <t>7,12; 10,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,74</t>
+          <t>4,23; 7,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,42</t>
+          <t>5,08; 8,44</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,45</t>
+          <t>0,88; 5,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,98</t>
+          <t>1,21; 5,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,64</t>
+          <t>1,82; 7,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,05</t>
+          <t>2,46; 6,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,01</t>
+          <t>3,62; 11,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 16,23</t>
+          <t>7,76; 16,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,82</t>
+          <t>4,18; 11,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,1</t>
+          <t>3,13; 6,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,84</t>
+          <t>2,93; 6,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,05</t>
+          <t>5,17; 9,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,87</t>
+          <t>3,74; 8,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,2</t>
+          <t>3,32; 6,22</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1429,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,43</t>
+          <t>2,34; 7,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,0</t>
+          <t>2,12; 6,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,03</t>
+          <t>3,75; 7,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,35</t>
+          <t>0,73; 4,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 9,67</t>
+          <t>3,84; 9,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,77; 12,2</t>
+          <t>4,92; 12,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,45</t>
+          <t>7,04; 11,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,14</t>
+          <t>0,38; 2,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,49</t>
+          <t>3,71; 7,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,39</t>
+          <t>4,1; 8,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,79; 8,73</t>
+          <t>5,75; 8,92</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,33</t>
+          <t>2,95; 6,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,83</t>
+          <t>1,22; 3,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,13</t>
+          <t>2,71; 6,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,15</t>
+          <t>4,95; 9,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,64</t>
+          <t>4,84; 8,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,56</t>
+          <t>3,74; 7,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,91</t>
+          <t>5,52; 9,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,96</t>
+          <t>4,53; 10,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 6,87</t>
+          <t>4,34; 6,9</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,98</t>
+          <t>2,83; 5,09</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,1</t>
+          <t>4,48; 7,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,88</t>
+          <t>5,62; 8,85</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,15</t>
+          <t>3,05; 6,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,34</t>
+          <t>6,98; 11,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,45</t>
+          <t>1,73; 4,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,58</t>
+          <t>3,42; 6,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,92</t>
+          <t>4,28; 7,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,06; 12,5</t>
+          <t>8,47; 12,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,29</t>
+          <t>2,33; 5,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,81; 8,88</t>
+          <t>5,86; 8,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,39</t>
+          <t>4,08; 6,37</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,11; 11,2</t>
+          <t>8,18; 11,14</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,27</t>
+          <t>2,41; 4,24</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,15</t>
+          <t>4,9; 7,08</t>
         </is>
       </c>
     </row>
@@ -1844,47 +1844,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,89</t>
+          <t>2,56; 3,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,96; 5,57</t>
+          <t>3,94; 5,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,17</t>
+          <t>2,81; 4,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,55; 6,09</t>
+          <t>4,53; 6,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,15; 5,62</t>
+          <t>4,11; 5,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,27</t>
+          <t>8,39; 10,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,77; 6,33</t>
+          <t>4,78; 6,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,06</t>
+          <t>6,44; 8,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,54</t>
+          <t>3,58; 4,52</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>4,05; 5,08</t>
+          <t>4,03; 5,02</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,83; 6,88</t>
+          <t>5,81; 6,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,53</t>
+          <t>1,33; 5,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,97</t>
+          <t>3,25; 8,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,35</t>
+          <t>1,33; 6,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,71; 13,92</t>
+          <t>6,49; 13,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,78</t>
+          <t>1,92; 4,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 10,6</t>
+          <t>5,52; 10,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,9</t>
+          <t>2,9; 6,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,14</t>
+          <t>2,95; 6,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,14</t>
+          <t>1,25; 4,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,8</t>
+          <t>4,52; 8,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 14,31</t>
+          <t>8,19; 14,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,83</t>
+          <t>2,17; 5,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,16</t>
+          <t>4,15; 7,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 9,68</t>
+          <t>6,17; 9,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,31</t>
+          <t>2,09; 4,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,52</t>
+          <t>0,32; 3,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,45</t>
+          <t>1,22; 5,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,25</t>
+          <t>0,48; 3,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,3</t>
+          <t>0,92; 4,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 9,14</t>
+          <t>4,12; 9,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,39</t>
+          <t>0,85; 3,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,6</t>
+          <t>3,16; 6,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,11</t>
+          <t>0,44; 2,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,16</t>
+          <t>0,44; 3,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,35</t>
+          <t>2,48; 5,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,92</t>
+          <t>2,62; 6,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,44</t>
+          <t>1,27; 4,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 15,93</t>
+          <t>10,59; 15,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 10,58</t>
+          <t>4,6; 10,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,05</t>
+          <t>1,09; 3,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,16</t>
+          <t>6,94; 10,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,81</t>
+          <t>4,17; 7,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,36</t>
+          <t>1,27; 5,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,97</t>
+          <t>1,04; 6,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,07</t>
+          <t>1,84; 7,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 11,1</t>
+          <t>3,52; 10,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,76; 16,35</t>
+          <t>7,74; 16,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 11,36</t>
+          <t>4,17; 11,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,93</t>
+          <t>2,84; 6,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,97</t>
+          <t>5,01; 10,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,38</t>
+          <t>3,47; 8,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,47</t>
+          <t>2,34; 7,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,99</t>
+          <t>2,11; 7,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,25</t>
+          <t>0,72; 3,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 9,61</t>
+          <t>3,76; 9,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,16</t>
+          <t>4,88; 12,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,32</t>
+          <t>0,34; 2,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,46</t>
+          <t>3,72; 7,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,55</t>
+          <t>4,38; 8,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,34</t>
+          <t>2,99; 6,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,76</t>
+          <t>1,23; 3,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,28</t>
+          <t>2,71; 6,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,57</t>
+          <t>4,67; 8,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,47</t>
+          <t>3,67; 7,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,67</t>
+          <t>5,41; 9,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 6,9</t>
+          <t>4,23; 6,78</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,09</t>
+          <t>2,82; 5,13</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,24</t>
+          <t>4,45; 7,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,23</t>
+          <t>3,04; 6,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,98; 11,48</t>
+          <t>7,04; 11,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,26</t>
+          <t>1,81; 4,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,83</t>
+          <t>4,31; 7,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,47; 12,56</t>
+          <t>8,09; 12,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,14</t>
+          <t>2,36; 5,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,37</t>
+          <t>4,05; 6,43</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,18; 11,14</t>
+          <t>8,15; 11,26</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,24</t>
+          <t>2,39; 4,38</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,82</t>
+          <t>2,65; 3,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,94; 5,39</t>
+          <t>3,91; 5,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,17</t>
+          <t>2,81; 4,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,6</t>
+          <t>4,11; 5,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,39; 10,35</t>
+          <t>8,42; 10,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,41</t>
+          <t>4,82; 6,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,58; 4,52</t>
+          <t>3,59; 4,56</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6,35; 7,7</t>
+          <t>6,36; 7,67</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>4,03; 5,02</t>
+          <t>4,01; 5,01</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P13_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,42</t>
+          <t>1,23; 5,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,98</t>
+          <t>3,24; 8,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,57</t>
+          <t>0,51; 3,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,23</t>
+          <t>1,59; 6,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 13,94</t>
+          <t>6,67; 14,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,51</t>
+          <t>0,47; 2,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,91</t>
+          <t>1,8; 4,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,21</t>
+          <t>5,7; 10,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,54</t>
+          <t>0,71; 2,61</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,96</t>
+          <t>2,86; 6,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,97</t>
+          <t>2,65; 6,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,08</t>
+          <t>1,24; 4,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,77</t>
+          <t>2,63; 6,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,86</t>
+          <t>4,68; 8,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,19; 14,07</t>
+          <t>8,13; 14,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,67</t>
+          <t>2,17; 5,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,65</t>
+          <t>5,75; 9,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,04</t>
+          <t>4,23; 7,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,63</t>
+          <t>6,14; 9,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,27</t>
+          <t>2,04; 4,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,71</t>
+          <t>4,71; 7,55</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,73</t>
+          <t>0,3; 3,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,15</t>
+          <t>1,23; 5,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,16</t>
+          <t>0,52; 3,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 10,44</t>
+          <t>5,39; 10,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,76</t>
+          <t>0,9; 4,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 9,64</t>
+          <t>4,17; 9,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,3; 13,65</t>
+          <t>8,65; 13,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,13</t>
+          <t>0,8; 3,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,61</t>
+          <t>3,07; 6,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,19</t>
+          <t>0,46; 2,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,54</t>
+          <t>7,69; 11,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,23</t>
+          <t>0,27; 3,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,41</t>
+          <t>2,51; 5,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,86</t>
+          <t>2,66; 7,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 10,18</t>
+          <t>3,93; 10,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,58</t>
+          <t>1,11; 4,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,69</t>
+          <t>10,73; 15,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 10,1</t>
+          <t>4,88; 10,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,69</t>
+          <t>4,9; 8,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,29</t>
+          <t>1,07; 3,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,05</t>
+          <t>7,16; 10,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,97</t>
+          <t>4,31; 7,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,44</t>
+          <t>5,05; 8,42</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,83</t>
+          <t>0,89; 5,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,49</t>
+          <t>1,01; 5,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,14</t>
+          <t>1,44; 6,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,92</t>
+          <t>2,5; 7,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 10,12</t>
+          <t>3,74; 11,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 16,04</t>
+          <t>7,54; 16,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 11,06</t>
+          <t>4,24; 11,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,94</t>
+          <t>3,25; 7,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,93</t>
+          <t>3,03; 6,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 10,17</t>
+          <t>4,88; 10,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,02</t>
+          <t>3,61; 7,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,22</t>
+          <t>3,36; 6,2</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1429,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,5</t>
+          <t>2,31; 7,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,06</t>
+          <t>1,98; 7,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,75; 7,92</t>
+          <t>3,81; 8,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,86</t>
+          <t>0,71; 4,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,47</t>
+          <t>4,01; 9,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,88; 12,64</t>
+          <t>4,77; 12,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,04; 11,82</t>
+          <t>6,79; 11,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,19</t>
+          <t>0,37; 2,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,63</t>
+          <t>3,69; 7,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,92</t>
+          <t>4,15; 8,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,75; 8,92</t>
+          <t>5,79; 8,73</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,44</t>
+          <t>2,92; 6,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,62</t>
+          <t>1,24; 3,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,03</t>
+          <t>2,7; 6,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,03</t>
+          <t>5,02; 9,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,67; 8,61</t>
+          <t>4,63; 8,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,67; 7,33</t>
+          <t>3,64; 7,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,76</t>
+          <t>5,53; 9,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 10,04</t>
+          <t>4,66; 9,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,78</t>
+          <t>4,36; 6,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,13</t>
+          <t>2,69; 4,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,24</t>
+          <t>4,57; 7,1</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,85</t>
+          <t>5,65; 8,88</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,0</t>
+          <t>3,11; 6,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,04; 11,35</t>
+          <t>6,91; 11,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,27</t>
+          <t>1,76; 4,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,55</t>
+          <t>3,41; 6,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,8</t>
+          <t>4,36; 7,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,45</t>
+          <t>8,06; 12,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,24</t>
+          <t>2,43; 5,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,86; 8,81</t>
+          <t>5,81; 8,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,43</t>
+          <t>4,13; 6,39</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,15; 11,26</t>
+          <t>8,11; 11,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,38</t>
+          <t>2,37; 4,27</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,08</t>
+          <t>4,93; 7,15</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,89</t>
+          <t>2,59; 3,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,91; 5,39</t>
+          <t>3,96; 5,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,12</t>
+          <t>2,85; 4,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,08</t>
+          <t>4,55; 6,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,57</t>
+          <t>4,15; 5,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,42; 10,35</t>
+          <t>8,41; 10,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,39</t>
+          <t>4,77; 6,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,04</t>
+          <t>6,44; 8,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,59; 4,56</t>
+          <t>3,54; 4,54</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6,36; 7,67</t>
+          <t>6,35; 7,7</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,01</t>
+          <t>4,05; 5,08</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,81; 6,89</t>
+          <t>5,83; 6,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 8,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,53</t>
+          <t>0,47; 3,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,87; 23,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,43</t>
+          <t>0,46; 2,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,25; 14,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,61</t>
+          <t>0,68; 2,62</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,9%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,93</t>
+          <t>2,49; 6,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,79</t>
+          <t>5,7; 9,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,55</t>
+          <t>4,62; 7,42</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,21%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 10,52</t>
+          <t>5,23; 10,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,65; 13,69</t>
+          <t>8,5; 13,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,69; 11,41</t>
+          <t>7,52; 11,15</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,36</t>
+          <t>1,12; 4,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,2</t>
+          <t>3,88; 10,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 15,94</t>
+          <t>6,7; 12,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,58</t>
+          <t>3,26; 7,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,16; 10,07</t>
+          <t>4,37; 7,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,42</t>
+          <t>4,13; 7,81</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,05</t>
+          <t>2,5; 7,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,1</t>
+          <t>3,24; 7,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,2</t>
+          <t>3,37; 6,21</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,03</t>
+          <t>3,72; 7,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,45</t>
+          <t>6,8; 11,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,79; 8,73</t>
+          <t>5,67; 8,62</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>6,78%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,15</t>
+          <t>4,88; 8,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,96</t>
+          <t>3,04; 9,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,88</t>
+          <t>4,37; 8,36</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,58</t>
+          <t>1,53; 5,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,81; 8,88</t>
+          <t>5,91; 8,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,15</t>
+          <t>3,27; 6,64</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>5,88%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,55; 6,09</t>
+          <t>3,76; 5,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,06</t>
+          <t>5,69; 7,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,83; 6,88</t>
+          <t>5,09; 6,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,47</t>
+          <t>1,23; 5,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,17</t>
+          <t>3,06; 7,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 8,53</t>
+          <t>3,27; 9,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,53</t>
+          <t>0,5; 3,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,36</t>
+          <t>1,33; 6,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,87; 23,31</t>
+          <t>13,9; 23,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 14,09</t>
+          <t>6,88; 13,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,41</t>
+          <t>0,47; 2,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,77</t>
+          <t>1,84; 5,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 14,74</t>
+          <t>9,23; 14,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,33</t>
+          <t>5,78; 10,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,62</t>
+          <t>0,69; 2,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,87</t>
+          <t>2,9; 6,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,96</t>
+          <t>2,76; 7,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,31</t>
+          <t>1,21; 4,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,69</t>
+          <t>2,65; 6,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,95</t>
+          <t>4,61; 9,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 14,05</t>
+          <t>8,31; 13,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,64</t>
+          <t>2,02; 5,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 9,69</t>
+          <t>5,66; 9,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,19</t>
+          <t>4,32; 7,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,74</t>
+          <t>6,07; 9,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,25</t>
+          <t>2,07; 4,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,42</t>
+          <t>4,6; 7,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,37</t>
+          <t>0,3; 3,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,62</t>
+          <t>1,24; 5,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,18</t>
+          <t>0,51; 3,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,29</t>
+          <t>5,39; 10,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,13</t>
+          <t>0,9; 4,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,52</t>
+          <t>4,2; 9,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,5; 13,47</t>
+          <t>8,35; 13,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,04</t>
+          <t>0,85; 3,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,3</t>
+          <t>3,22; 6,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,02</t>
+          <t>0,42; 2,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,15</t>
+          <t>7,44; 11,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,01</t>
+          <t>0,31; 3,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,5</t>
+          <t>1,17; 4,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,07</t>
+          <t>2,74; 7,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 10,24</t>
+          <t>3,74; 9,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,44</t>
+          <t>1,28; 4,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 12,46</t>
+          <t>6,36; 12,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,41</t>
+          <t>4,58; 9,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,69</t>
+          <t>3,25; 7,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,07</t>
+          <t>1,06; 3,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,73</t>
+          <t>4,42; 7,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,74</t>
+          <t>4,31; 7,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,81</t>
+          <t>4,08; 7,63</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,45</t>
+          <t>0,9; 5,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,98</t>
+          <t>1,12; 6,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,64</t>
+          <t>1,46; 6,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,04</t>
+          <t>2,62; 7,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,01</t>
+          <t>3,88; 10,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 16,23</t>
+          <t>7,58; 16,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,82</t>
+          <t>4,29; 11,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,1</t>
+          <t>3,24; 6,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,84</t>
+          <t>2,83; 6,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,05</t>
+          <t>5,14; 10,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,87</t>
+          <t>3,64; 8,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,21</t>
+          <t>3,44; 6,28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1429,64 +1430,64 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,43</t>
+          <t>2,56; 7,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,0</t>
+          <t>2,23; 6,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,91</t>
+          <t>3,7; 7,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,35</t>
+          <t>0,74; 4,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 9,67</t>
+          <t>3,69; 9,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,77; 12,2</t>
+          <t>4,89; 12,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,46</t>
+          <t>6,87; 11,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,14</t>
+          <t>0,36; 2,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,49</t>
+          <t>3,65; 7,59</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,39</t>
+          <t>3,96; 8,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,62</t>
+          <t>5,61; 8,84</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,33</t>
+          <t>2,99; 6,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,83</t>
+          <t>1,21; 3,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,13</t>
+          <t>2,67; 5,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,94</t>
+          <t>4,87; 9,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,64</t>
+          <t>4,65; 8,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,56</t>
+          <t>3,75; 7,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,91</t>
+          <t>5,54; 9,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 9,7</t>
+          <t>3,35; 9,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 6,87</t>
+          <t>4,3; 6,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,98</t>
+          <t>2,73; 5,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,1</t>
+          <t>4,61; 7,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,36</t>
+          <t>4,35; 8,43</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,15</t>
+          <t>3,18; 6,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,34</t>
+          <t>7,02; 11,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,45</t>
+          <t>1,84; 4,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,69</t>
+          <t>1,57; 5,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,92</t>
+          <t>4,23; 7,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,06; 12,5</t>
+          <t>8,3; 12,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,29</t>
+          <t>2,34; 5,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,97</t>
+          <t>5,93; 8,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,39</t>
+          <t>4,16; 6,53</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,11; 11,2</t>
+          <t>8,18; 11,3</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,27</t>
+          <t>2,39; 4,33</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,64</t>
+          <t>3,2; 6,63</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,89</t>
+          <t>2,62; 3,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,96; 5,57</t>
+          <t>3,95; 5,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,17</t>
+          <t>2,89; 4,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,67</t>
+          <t>3,61; 5,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,15; 5,62</t>
+          <t>4,05; 5,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,27</t>
+          <t>8,33; 10,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,77; 6,33</t>
+          <t>4,74; 6,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,69; 7,71</t>
+          <t>5,55; 7,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,54</t>
+          <t>3,58; 4,56</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6,35; 7,7</t>
+          <t>6,36; 7,68</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>4,05; 5,08</t>
+          <t>4,05; 5,1</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,09; 6,46</t>
+          <t>5,14; 6,46</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7793</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15207</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16429</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4750</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8684</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>53072</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28502</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3219</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16478</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>68278</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>44931</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7969</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3356; 14609</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9015; 23406</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9608; 26562</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1551; 11036</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3472; 17096</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>39930; 68228</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19856; 40010</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1353; 7578</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9802; 27024</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53738; 84055</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33660; 59316</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4143; 15302</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22779</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22813</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11941</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21679</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32865</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>57290</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19183</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>39190</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>55644</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>80103</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>31124</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>60868</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14315; 34461</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13908; 35684</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6087; 22015</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13738; 34100</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23235; 45896</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43517; 73251</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10565; 29433</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29169; 51251</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>43041; 72680</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>62455; 98541</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21246; 45292</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>47532; 76329</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3696</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8870</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23624</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7274</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22030</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>37538</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10970</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>30900</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6694</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>61162</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>956; 11475</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4007; 17780</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1639; 9685</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16985; 33560</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3023; 14800</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14338; 32080</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7467</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29152; 46795</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5555; 21331</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21401; 45702</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2739; 13701</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>49408; 73206</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9404</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16604</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19653</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9149</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>35368</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27740</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25993</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13727</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>44772</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44344</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>45646</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1100; 12226</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4368; 16836</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10104; 26314</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11678; 30771</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4739; 16235</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24630; 47069</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17753; 38349</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15344; 36378</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7772; 22785</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>33563; 59131</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>32575; 59609</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>32055; 59893</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5409</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6294</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7954</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7793</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13651</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24972</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15655</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10237</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>19060</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>31266</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>23608</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18030</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1839; 10925</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2389; 13853</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3087; 14477</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4689; 12643</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8050; 22641</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>16635; 37215</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9329; 25023</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6744; 14490</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11619; 28307</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>22204; 43452</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15618; 34296</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13304; 24303</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12429</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10728</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14463</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5322</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>17522</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>21622</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22900</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5322</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>29951</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>32350</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>37363</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1947</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7009; 20399</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5875; 17792</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>9969; 21510</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2066; 11760</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10344; 26984</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>13343; 33250</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17672; 29564</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1969; 11149</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>20246; 42074</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>21255; 44800</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>29542; 46575</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>27278</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>14601</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>27162</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>41065</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>41300</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>37021</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>50998</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>58741</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>68578</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>51621</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>78160</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>99805</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>18397; 40851</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8018; 26103</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>17551; 39344</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>30382; 56077</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>29700; 55335</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>26009; 53216</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>38232; 67325</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>28451; 81715</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>53831; 85318</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>36946; 68317</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>62128; 98076</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>63993; 124180</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>32878</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>69323</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>22204</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>35055</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>45646</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>84287</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>29845</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>52258</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>78524</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>153610</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>52050</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>87313</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>23632; 47606</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>54604; 87443</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>14308; 33013</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>14559; 51953</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>33123; 60683</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>68352; 104929</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>19311; 43953</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>42506; 63065</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>63460; 99778</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>131093; 180974</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>38282; 69324</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>52636; 109120</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>104411</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>158941</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>117581</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>168081</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>163893</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>331560</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>195680</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>250076</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>268304</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>490501</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>313261</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>418157</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>85961; 125506</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>135106; 188271</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>97926; 140090</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>124843; 196052</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>137011; 189635</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>296176; 369679</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>167866; 223954</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>202910; 280723</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>238296; 303755</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>444062; 535778</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>280753; 353544</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>365723; 459618</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>